--- a/RESNET/Experiments_metadata.xlsx
+++ b/RESNET/Experiments_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nlesc-my.sharepoint.com/personal/p_chandramouli_esciencecenter_nl/Documents/Projects/XAI4Geo/Model_Trials/RESNET/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="11_AD4DB114E441178AC67DF4E4AE55E378683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{512B4A7F-FC4C-418C-93E8-12CAB312AC66}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="11_AD4DB114E441178AC67DF4E4AE55E378683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D8C737C-7666-409F-8C6F-0CBDE80809ED}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3400" yWindow="14290" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
   <si>
     <t>name</t>
   </si>
@@ -118,13 +118,52 @@
   </si>
   <si>
     <t>Validation</t>
+  </si>
+  <si>
+    <t>Experiment 3</t>
+  </si>
+  <si>
+    <t>experiment3.ipynb</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Removed classes with less than 10 examples</t>
+  </si>
+  <si>
+    <t>Experiment 4</t>
+  </si>
+  <si>
+    <t>experiment4.ipynb</t>
+  </si>
+  <si>
+    <t>Experiment 5</t>
+  </si>
+  <si>
+    <t>experiment5.ipynb</t>
+  </si>
+  <si>
+    <t>resnet18</t>
+  </si>
+  <si>
+    <t>(GApool, output_9)</t>
+  </si>
+  <si>
+    <t>Experiment 6</t>
+  </si>
+  <si>
+    <t>experiment6.ipynb</t>
+  </si>
+  <si>
+    <t>learning_rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +183,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -169,10 +214,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,31 +499,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" style="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="47.77734375" customWidth="1"/>
+    <col min="19" max="19" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,14 +542,17 @@
       <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>15</v>
       </c>
@@ -529,22 +581,25 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
         <v>4</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -578,23 +633,26 @@
       <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3">
+        <v>1E-3</v>
+      </c>
+      <c r="M3" t="s">
         <v>25</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>32</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>50</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>63.8</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>22.2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -628,14 +686,247 @@
       <c r="K4" t="s">
         <v>24</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4">
+        <v>1E-3</v>
+      </c>
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>32</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>50</v>
+      </c>
+      <c r="P4" s="1">
+        <v>87.2</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>0.1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5">
+        <v>1E-3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5">
+        <v>32</v>
+      </c>
+      <c r="O5">
+        <v>50</v>
+      </c>
+      <c r="P5" s="1">
+        <v>87.7</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>0.2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6">
+        <v>1E-3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6">
+        <v>32</v>
+      </c>
+      <c r="O6">
+        <v>50</v>
+      </c>
+      <c r="P6" s="1">
+        <v>88.8</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>35</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>0.2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7">
+        <v>1E-3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7">
+        <v>32</v>
+      </c>
+      <c r="O7">
+        <v>50</v>
+      </c>
+      <c r="P7" s="1">
+        <v>63.5</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>42.7</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>0.2</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8">
+        <v>32</v>
+      </c>
+      <c r="O8">
+        <v>50</v>
+      </c>
+      <c r="P8" s="1">
+        <v>87.8</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>42.7</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/RESNET/Experiments_metadata.xlsx
+++ b/RESNET/Experiments_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nlesc-my.sharepoint.com/personal/p_chandramouli_esciencecenter_nl/Documents/Projects/XAI4Geo/Model_Trials/RESNET/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="11_AD4DB114E441178AC67DF4E4AE55E378683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D8C737C-7666-409F-8C6F-0CBDE80809ED}"/>
+  <xr:revisionPtr revIDLastSave="241" documentId="11_AD4DB114E441178AC67DF4E4AE55E378683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A87975A-02B3-466C-AF6E-80171AD67F9A}"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="14290" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="64">
   <si>
     <t>name</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Removed classes with less than 10 examples</t>
-  </si>
-  <si>
     <t>Experiment 4</t>
   </si>
   <si>
@@ -157,13 +154,89 @@
   </si>
   <si>
     <t>learning_rate</t>
+  </si>
+  <si>
+    <t>data_augmenter</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Experiment 7</t>
+  </si>
+  <si>
+    <t>experiment7.ipynb</t>
+  </si>
+  <si>
+    <t>Experiment 8</t>
+  </si>
+  <si>
+    <t>experiment8.ipynb</t>
+  </si>
+  <si>
+    <t>Experiment 9</t>
+  </si>
+  <si>
+    <t>experiment9.ipynb</t>
+  </si>
+  <si>
+    <t>Experiment 10</t>
+  </si>
+  <si>
+    <t>experiment10.ipynb</t>
+  </si>
+  <si>
+    <t>Removed classes with less than 10 examples [S&gt;10]</t>
+  </si>
+  <si>
+    <t>S&gt;10</t>
+  </si>
+  <si>
+    <t>S&gt;10; split train/val; augmented train after;</t>
+  </si>
+  <si>
+    <t>Experiment 11</t>
+  </si>
+  <si>
+    <t>experiment11.ipynb</t>
+  </si>
+  <si>
+    <t>Experiment 12</t>
+  </si>
+  <si>
+    <t>experiment12.ipynb</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S&gt;10; split train/val; aug train; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>smote</t>
+    </r>
+  </si>
+  <si>
+    <t>F1 macro</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +266,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -214,11 +294,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,34 +580,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="47.77734375" customWidth="1"/>
-    <col min="19" max="19" width="26.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="17" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="47.85546875" customWidth="1"/>
+    <col min="21" max="21" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,23 +618,23 @@
       <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>15</v>
       </c>
@@ -563,43 +645,49 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" t="s">
-        <v>43</v>
-      </c>
       <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" t="s">
         <v>4</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="S2" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -616,43 +704,49 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1E-3</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>32</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>50</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>63.8</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>22.2</v>
       </c>
+      <c r="S3" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -669,43 +763,49 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>22</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>23</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>24</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1E-3</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>32</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>50</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>87.2</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>40.700000000000003</v>
       </c>
+      <c r="S4" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -722,51 +822,57 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>2</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="I5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
         <v>22</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>23</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>24</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1E-3</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>25</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>32</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>50</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>87.7</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>36.5</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
       </c>
       <c r="C6">
         <v>0.2</v>
@@ -778,51 +884,57 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>2</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
         <v>22</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>23</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>24</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1E-3</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>25</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>32</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>50</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>88.8</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>35</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>34</v>
+      <c r="S6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
       </c>
       <c r="C7">
         <v>0.2</v>
@@ -833,52 +945,58 @@
       <c r="E7" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="3">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7">
+        <v>1E-3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7">
+        <v>32</v>
+      </c>
+      <c r="P7">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>63.5</v>
+      </c>
+      <c r="R7" s="1">
+        <v>42.7</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7">
-        <v>1E-3</v>
-      </c>
-      <c r="M7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7">
-        <v>32</v>
-      </c>
-      <c r="O7">
-        <v>50</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63.5</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>42.7</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
       </c>
       <c r="C8">
         <v>0.2</v>
@@ -890,43 +1008,421 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8">
+        <v>32</v>
+      </c>
+      <c r="P8">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>87.8</v>
+      </c>
+      <c r="R8" s="1">
+        <v>42.7</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9">
+        <v>0.2</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="3">
         <v>2</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="I9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
         <v>22</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K9" t="s">
         <v>23</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L9" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M9" s="3">
         <v>0.01</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N9" t="s">
         <v>25</v>
       </c>
-      <c r="N8">
+      <c r="O9">
         <v>32</v>
       </c>
-      <c r="O8">
+      <c r="P9" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="R9" s="1">
+        <v>58.7</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <v>0.2</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10">
+        <v>32</v>
+      </c>
+      <c r="P10">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>61.4</v>
+      </c>
+      <c r="R10" s="1">
+        <v>53.5</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="1">
-        <v>87.8</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>42.7</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>34</v>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>0.2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11">
+        <v>32</v>
+      </c>
+      <c r="P11">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>89.8</v>
+      </c>
+      <c r="R11" s="1">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12">
+        <v>0.2</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="N12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12">
+        <v>32</v>
+      </c>
+      <c r="P12">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>91.2</v>
+      </c>
+      <c r="R12" s="1">
+        <v>34.9</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13">
+        <v>0.2</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13">
+        <v>32</v>
+      </c>
+      <c r="P13">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="R13" s="1">
+        <v>44.6</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14">
+        <v>0.2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="N14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14">
+        <v>32</v>
+      </c>
+      <c r="P14">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>72.5</v>
+      </c>
+      <c r="R14" s="1">
+        <v>36.9</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
